--- a/apri_pi10_ina_2010.xlsx
+++ b/apri_pi10_ina_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nestor/Documents/@Machine Learning/0- CCT/CA 2 project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E0430-95F4-8D47-BE73-54847A8E85D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A00D82-5237-6348-AB69-8AC87C4C87DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="77">
-  <si>
-    <t>Price indices of the means of agricultural production, input (2010 = 100) - annual data [APRI_PI10_INA__custom_4117852]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="74">
+  <si>
+    <t>Price indices of the means of agricultural production, input (2010 = 100) - annual data [APRI_PI10_INA__custom_4153961]</t>
   </si>
   <si>
     <t>Open product page</t>
@@ -78,7 +78,7 @@
     <t>Annual</t>
   </si>
   <si>
-    <t>Nominal index</t>
+    <t>Real index</t>
   </si>
   <si>
     <t>Index, 2010=100</t>
@@ -180,18 +180,9 @@
     <t>Sweden</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
@@ -216,7 +207,7 @@
     <t>2017</t>
   </si>
   <si>
-    <t>Data extracted on 11/12/2022 15:09:24 from [ESTAT]</t>
+    <t>Data extracted on 14/12/2022 00:57:04 from [ESTAT]</t>
   </si>
   <si>
     <t xml:space="preserve">Dataset: </t>
@@ -234,13 +225,13 @@
     <t>GEO (Labels)</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Special value</t>
+  </si>
+  <si>
     <t>:</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Special value</t>
   </si>
   <si>
     <t>not available</t>
@@ -787,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:O16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -909,7 +900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -978,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1191,15 +1182,15 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>54</v>
@@ -1207,7 +1198,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>55</v>
@@ -1215,7 +1206,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>56</v>
@@ -1223,7 +1214,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>57</v>
@@ -1231,7 +1222,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>58</v>
@@ -1239,7 +1230,7 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>59</v>
@@ -1247,34 +1238,10 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1284,9 +1251,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1312,35 +1279,31 @@
     <col min="15" max="15" width="5" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,7 +1319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1372,1990 +1335,1575 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="19">
+        <v>100</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>70</v>
+      <c r="D12" s="15">
+        <v>106.7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="19">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="F12" s="15">
+        <v>108.5</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" s="15">
-        <v>109.9</v>
+        <v>108.4</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J12" s="15">
-        <v>114.7</v>
+        <v>104.8</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L12" s="15">
-        <v>116.4</v>
+        <v>102.7</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="19">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="N12" s="15">
+        <v>100.2</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P12" s="15">
-        <v>110.7</v>
+        <v>100.3</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="15">
-        <v>108.1</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="15">
-        <v>110.1</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14">
-        <v>109.6</v>
+      <c r="B13" s="18">
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="14">
-        <v>95.9</v>
+        <v>107.6</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F13" s="14">
+        <v>111.1</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" s="14">
-        <v>111.2</v>
+        <v>110.2</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J13" s="14">
-        <v>117.9</v>
+        <v>101.7</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L13" s="14">
-        <v>118.3</v>
+        <v>99.3</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N13" s="14">
-        <v>109.7</v>
+        <v>96.8</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P13" s="14">
-        <v>107.8</v>
+        <v>97.8</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="18">
-        <v>107</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T13" s="14">
-        <v>110.5</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>70</v>
+      <c r="B14" s="19">
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="15">
-        <v>97.8</v>
+        <v>106.9</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F14" s="15">
+        <v>110.5</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="15">
-        <v>110.5</v>
+        <v>65</v>
+      </c>
+      <c r="H14" s="19">
+        <v>109</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" s="19">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L14" s="15">
-        <v>115.8</v>
+        <v>103.4</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N14" s="15">
-        <v>110.8</v>
+        <v>100.4</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P14" s="19">
-        <v>107</v>
+        <v>65</v>
+      </c>
+      <c r="P14" s="15">
+        <v>100.6</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="15">
-        <v>102.5</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T14" s="15">
-        <v>103.9</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14">
-        <v>107.9</v>
+      <c r="B15" s="18">
+        <v>100</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="14">
-        <v>101.3</v>
+        <v>105.9</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="14">
+        <v>106.4</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" s="14">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="14">
-        <v>112.6</v>
+        <v>65</v>
+      </c>
+      <c r="J15" s="18">
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" s="14">
-        <v>115.9</v>
+        <v>65</v>
+      </c>
+      <c r="L15" s="18">
+        <v>103</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N15" s="14">
-        <v>114.1</v>
+        <v>98.8</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P15" s="14">
-        <v>111.2</v>
+        <v>97.8</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="14">
-        <v>107.4</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T15" s="14">
-        <v>108.9</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="19">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="15">
-        <v>98.3</v>
+        <v>106.3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="15">
+        <v>108.9</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16" s="15">
-        <v>109.1</v>
+        <v>112.4</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J16" s="15">
-        <v>114.5</v>
+        <v>111.6</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L16" s="15">
-        <v>118.7</v>
+        <v>109.5</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N16" s="15">
-        <v>118.2</v>
+        <v>109.2</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P16" s="15">
-        <v>116.4</v>
+        <v>110.1</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R16" s="15">
-        <v>116.1</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T16" s="15">
-        <v>118.3</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>70</v>
+      <c r="B17" s="18">
+        <v>100</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D17" s="14">
+        <v>108.1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F17" s="14">
+        <v>110.8</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="14">
-        <v>110.8</v>
+        <v>111.1</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="18">
-        <v>116</v>
+        <v>65</v>
+      </c>
+      <c r="J17" s="14">
+        <v>106.5</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L17" s="14">
-        <v>118.2</v>
+        <v>104.9</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N17" s="14">
-        <v>114.2</v>
+        <v>102.3</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P17" s="14">
-        <v>112.6</v>
+        <v>102.1</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="14">
-        <v>110.2</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" s="14">
-        <v>111.9</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="15">
-        <v>108.9</v>
+      <c r="B18" s="19">
+        <v>100</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" s="15">
-        <v>100.9</v>
+        <v>108.2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F18" s="15">
+        <v>111.1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H18" s="15">
-        <v>109.5</v>
+        <v>113.4</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J18" s="15">
-        <v>114.6</v>
+        <v>108.8</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L18" s="15">
-        <v>117.5</v>
+        <v>106.6</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N18" s="15">
-        <v>113.2</v>
+        <v>65</v>
+      </c>
+      <c r="N18" s="19">
+        <v>104</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P18" s="15">
-        <v>110.8</v>
+        <v>103.2</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R18" s="15">
-        <v>107.9</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T18" s="15">
-        <v>107.3</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>70</v>
+      <c r="B19" s="18">
+        <v>100</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="14">
+        <v>105.9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F19" s="18">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H19" s="14">
-        <v>109.2</v>
+        <v>107.3</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="14">
-        <v>111.5</v>
+        <v>65</v>
+      </c>
+      <c r="J19" s="18">
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L19" s="14">
-        <v>110.8</v>
+        <v>104.8</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="18">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="N19" s="14">
+        <v>103.1</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P19" s="14">
-        <v>105.6</v>
+        <v>104.6</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R19" s="14">
-        <v>103.9</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T19" s="14">
-        <v>106.6</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>70</v>
+      <c r="B20" s="19">
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="15">
+        <v>107.3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F20" s="15">
+        <v>110.3</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" s="15">
-        <v>110.6</v>
+        <v>108.7</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J20" s="15">
-        <v>116.4</v>
+        <v>105.3</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="15">
-        <v>116.5</v>
+        <v>65</v>
+      </c>
+      <c r="L20" s="19">
+        <v>105</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N20" s="15">
-        <v>112.6</v>
+        <v>102.3</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P20" s="15">
-        <v>111.6</v>
+        <v>100.8</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R20" s="15">
-        <v>108.4</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T20" s="19">
-        <v>109</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="14">
-        <v>105.8</v>
+      <c r="B21" s="18">
+        <v>100</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="14">
+        <v>106.2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="14">
+        <v>107.3</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="14">
+        <v>107.6</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="14">
+        <v>104.6</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="14">
+        <v>102.3</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="14">
         <v>99.7</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="18">
-        <v>100</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="14">
-        <v>108.6</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="14">
-        <v>112.2</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L21" s="14">
-        <v>113.6</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N21" s="14">
-        <v>111.1</v>
-      </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P21" s="14">
-        <v>108.8</v>
+        <v>99.5</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="14">
-        <v>106.3</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T21" s="14">
-        <v>107.4</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>70</v>
+      <c r="B22" s="19">
+        <v>100</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D22" s="15">
+        <v>109.8</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F22" s="15">
+        <v>111.7</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H22" s="15">
-        <v>112.3</v>
+        <v>108.5</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="19">
-        <v>118</v>
+        <v>65</v>
+      </c>
+      <c r="J22" s="15">
+        <v>99.2</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L22" s="15">
-        <v>117.3</v>
+        <v>96.1</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N22" s="15">
-        <v>107.5</v>
+        <v>65</v>
+      </c>
+      <c r="N22" s="19">
+        <v>92</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P22" s="15">
-        <v>103.9</v>
+        <v>90.4</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" s="15">
-        <v>98.8</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T22" s="15">
-        <v>98.4</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
+      <c r="B23" s="18">
+        <v>100</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D23" s="14">
+        <v>103.9</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F23" s="14">
+        <v>105.5</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H23" s="14">
-        <v>106.9</v>
+        <v>106.3</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J23" s="14">
-        <v>112.1</v>
+        <v>104.2</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="14">
-        <v>114.4</v>
+        <v>65</v>
+      </c>
+      <c r="L23" s="18">
+        <v>101</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N23" s="14">
-        <v>112.4</v>
+        <v>100.6</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P23" s="14">
-        <v>109.1</v>
+        <v>100.6</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R23" s="14">
-        <v>108.5</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T23" s="14">
-        <v>110.1</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="15">
-        <v>124.1</v>
+      <c r="B24" s="19">
+        <v>100</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="15">
-        <v>107.4</v>
+        <v>95.4</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F24" s="15">
+        <v>96.4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H24" s="15">
-        <v>98.7</v>
+        <v>106.7</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J24" s="15">
-        <v>102.8</v>
+        <v>107.3</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L24" s="15">
-        <v>114.2</v>
+        <v>110.3</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N24" s="15">
-        <v>114.6</v>
+        <v>105.9</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P24" s="19">
-        <v>116</v>
+        <v>65</v>
+      </c>
+      <c r="P24" s="15">
+        <v>107.1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R24" s="19">
-        <v>110</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T24" s="19">
-        <v>112</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="14">
-        <v>108.1</v>
+      <c r="B25" s="18">
+        <v>100</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="14">
-        <v>103.4</v>
+        <v>107.1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F25" s="14">
+        <v>108.9</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H25" s="14">
-        <v>111.6</v>
+        <v>109.3</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="18">
-        <v>116</v>
+        <v>65</v>
+      </c>
+      <c r="J25" s="14">
+        <v>106.4</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L25" s="14">
-        <v>116.5</v>
+        <v>104.4</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N25" s="14">
-        <v>114.3</v>
+        <v>102.5</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P25" s="14">
-        <v>112.3</v>
+        <v>100.4</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R25" s="14">
-        <v>110.4</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T25" s="14">
-        <v>111.3</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="15">
-        <v>119.9</v>
+      <c r="B26" s="19">
+        <v>100</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" s="15">
-        <v>94.8</v>
+        <v>114.4</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F26" s="15">
+        <v>120.3</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H26" s="15">
-        <v>119.1</v>
+        <v>114.8</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J26" s="15">
-        <v>129.19999999999999</v>
+        <v>109.1</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L26" s="15">
-        <v>124.8</v>
+        <v>112.3</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N26" s="15">
-        <v>118.8</v>
+        <v>100.3</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P26" s="15">
-        <v>121.5</v>
+        <v>95.3</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R26" s="15">
-        <v>109.2</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T26" s="15">
-        <v>107.7</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="18">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D27" s="14">
-        <v>97.6</v>
+        <v>104.5</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27" s="18">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H27" s="14">
-        <v>108.3</v>
+        <v>104.5</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J27" s="14">
-        <v>113.1</v>
+        <v>102.6</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L27" s="14">
-        <v>113.4</v>
+        <v>100.7</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N27" s="14">
-        <v>112.2</v>
+        <v>98.9</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P27" s="14">
-        <v>110.1</v>
+        <v>98.5</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R27" s="14">
-        <v>108.2</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T27" s="14">
-        <v>110.1</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="19">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="19">
-        <v>96</v>
+        <v>65</v>
+      </c>
+      <c r="D28" s="15">
+        <v>108.1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F28" s="15">
+        <v>108.9</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H28" s="15">
-        <v>112.3</v>
+        <v>109.3</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J28" s="15">
-        <v>119.6</v>
+        <v>106.2</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L28" s="15">
-        <v>122.1</v>
+        <v>104.9</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N28" s="15">
-        <v>118.6</v>
+        <v>102.8</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P28" s="15">
-        <v>117.2</v>
+        <v>100.7</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="15">
-        <v>115.4</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T28" s="15">
-        <v>115.7</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="14">
-        <v>101.8</v>
+      <c r="B29" s="18">
+        <v>100</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="14">
-        <v>97.3</v>
+        <v>107.2</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F29" s="14">
+        <v>108.8</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H29" s="14">
-        <v>109.8</v>
+        <v>108.8</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J29" s="14">
-        <v>115.1</v>
+        <v>104.8</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L29" s="14">
-        <v>116.3</v>
+        <v>102.3</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N29" s="14">
-        <v>112.9</v>
+        <v>100.7</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P29" s="14">
-        <v>111.5</v>
+        <v>99.9</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R29" s="14">
-        <v>110.7</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T29" s="14">
-        <v>111.2</v>
-      </c>
-      <c r="U29" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="15">
-        <v>105.1</v>
+      <c r="B30" s="19">
+        <v>100</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="19">
+        <v>65</v>
+      </c>
+      <c r="D30" s="15">
+        <v>107.2</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="15">
+        <v>107.3</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="15">
+        <v>107.1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="15">
+        <v>101.9</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="15">
+        <v>100.1</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="15">
+        <v>96.1</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P30" s="19">
         <v>98</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="19">
-        <v>100</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="15">
-        <v>109.9</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="15">
-        <v>113.1</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="15">
-        <v>115.7</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N30" s="15">
-        <v>110.5</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P30" s="15">
-        <v>108.7</v>
-      </c>
       <c r="Q30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R30" s="15">
-        <v>104.5</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T30" s="19">
-        <v>108</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="14">
-        <v>99.2</v>
+      <c r="B31" s="18">
+        <v>100</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" s="14">
-        <v>98.7</v>
+        <v>103.3</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F31" s="14">
+        <v>105.1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" s="14">
-        <v>106.9</v>
+        <v>104.9</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J31" s="14">
-        <v>111.7</v>
+        <v>102.9</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L31" s="14">
-        <v>113.8</v>
+        <v>101.8</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N31" s="14">
-        <v>113.2</v>
+        <v>100.6</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P31" s="14">
-        <v>112.9</v>
+        <v>100.3</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R31" s="14">
-        <v>112.7</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T31" s="14">
-        <v>114.8</v>
-      </c>
-      <c r="U31" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="15">
-        <v>98.3</v>
+      <c r="B32" s="19">
+        <v>100</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" s="15">
-        <v>98.7</v>
+        <v>106.3</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F32" s="15">
+        <v>109.8</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H32" s="15">
-        <v>110.4</v>
+        <v>109.4</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J32" s="15">
-        <v>118.2</v>
+        <v>65</v>
+      </c>
+      <c r="J32" s="19">
+        <v>107</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L32" s="15">
-        <v>118.8</v>
+        <v>104.4</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N32" s="15">
-        <v>116.3</v>
+        <v>102.8</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P32" s="15">
-        <v>112.7</v>
+        <v>103.4</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R32" s="15">
-        <v>110.7</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T32" s="15">
-        <v>113.2</v>
-      </c>
-      <c r="U32" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>70</v>
+      <c r="B33" s="18">
+        <v>100</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D33" s="14">
+        <v>106.2</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F33" s="14">
+        <v>108.6</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H33" s="18">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J33" s="14">
-        <v>115.6</v>
+        <v>107.7</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L33" s="14">
-        <v>118.7</v>
+        <v>105.2</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N33" s="18">
-        <v>115</v>
+        <v>65</v>
+      </c>
+      <c r="N33" s="14">
+        <v>103.7</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P33" s="14">
-        <v>112.9</v>
+        <v>102.1</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R33" s="18">
-        <v>112</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T33" s="14">
-        <v>111.9</v>
-      </c>
-      <c r="U33" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="15">
-        <v>91.4</v>
+      <c r="B34" s="19">
+        <v>100</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" s="15">
-        <v>92.7</v>
+        <v>106.2</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F34" s="15">
+        <v>109.7</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H34" s="15">
-        <v>112.4</v>
+        <v>109.4</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J34" s="19">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="J34" s="15">
+        <v>104.9</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L34" s="15">
-        <v>123.5</v>
+        <v>101.1</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N34" s="19">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="N34" s="15">
+        <v>98.4</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P34" s="15">
-        <v>115.3</v>
+        <v>100.3</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R34" s="15">
-        <v>110.9</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T34" s="15">
-        <v>114.3</v>
-      </c>
-      <c r="U34" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="14">
-        <v>104.8</v>
+      <c r="B35" s="18">
+        <v>100</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35" s="14">
-        <v>98.3</v>
+        <v>108.3</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F35" s="14">
+        <v>109.8</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H35" s="14">
-        <v>110.6</v>
+        <v>110.2</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J35" s="14">
-        <v>115.2</v>
+        <v>105.8</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L35" s="14">
-        <v>117.9</v>
+        <v>103.6</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N35" s="14">
-        <v>113.6</v>
+        <v>101.8</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P35" s="14">
-        <v>110.4</v>
+        <v>101.2</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R35" s="14">
-        <v>108.3</v>
-      </c>
-      <c r="S35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T35" s="14">
-        <v>109.3</v>
-      </c>
-      <c r="U35" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="15">
-        <v>119.2</v>
+      <c r="B36" s="19">
+        <v>100</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36" s="15">
-        <v>98.9</v>
+        <v>109.4</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="19">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F36" s="15">
+        <v>109.4</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H36" s="15">
-        <v>113.9</v>
+        <v>107.9</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J36" s="15">
-        <v>118.1</v>
+        <v>101.1</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L36" s="15">
-        <v>118.2</v>
+        <v>95.6</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N36" s="15">
-        <v>110.7</v>
+        <v>91.7</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P36" s="15">
-        <v>104.3</v>
+        <v>90.9</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R36" s="15">
-        <v>99.5</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T36" s="19">
-        <v>100</v>
-      </c>
-      <c r="U36" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="14">
-        <v>106.3</v>
+      <c r="B37" s="18">
+        <v>100</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="14">
-        <v>97.6</v>
+        <v>65</v>
+      </c>
+      <c r="D37" s="18">
+        <v>108</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="18">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="F37" s="14">
+        <v>108.5</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H37" s="14">
-        <v>111.6</v>
+        <v>108.2</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J37" s="14">
-        <v>115.7</v>
+        <v>105.3</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L37" s="14">
-        <v>117.9</v>
+        <v>103.7</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N37" s="14">
-        <v>116.1</v>
+        <v>100.5</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P37" s="14">
-        <v>114.2</v>
+        <v>101.3</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R37" s="14">
-        <v>111.1</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T37" s="14">
-        <v>112.9</v>
-      </c>
-      <c r="U37" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="15">
-        <v>105.3</v>
+      <c r="B38" s="19">
+        <v>100</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="15">
+        <v>105.2</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="15">
+        <v>106.2</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="15">
+        <v>106.1</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="15">
+        <v>105.8</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="15">
+        <v>105.6</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N38" s="15">
+        <v>103.1</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" s="15">
+        <v>103.7</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="19">
-        <v>102</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="19">
-        <v>100</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="15">
-        <v>106.6</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J38" s="15">
-        <v>108.7</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L38" s="19">
-        <v>109</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N38" s="15">
-        <v>108.9</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="P38" s="15">
-        <v>109.5</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R38" s="15">
-        <v>108.1</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="T38" s="15">
-        <v>110.8</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="14">
-        <v>103.2</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="14">
-        <v>95.9</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="18">
-        <v>100</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="14">
-        <v>112.2</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="14">
-        <v>114.2</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="14">
-        <v>115.9</v>
-      </c>
-      <c r="M39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N39" s="14">
-        <v>112.2</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P39" s="14">
-        <v>107.1</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="R39" s="14">
-        <v>104.6</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="T39" s="14">
-        <v>109.8</v>
-      </c>
-      <c r="U39" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
